--- a/medicine/Enfance/Hannu_Mäkelä/Hannu_Mäkelä.xlsx
+++ b/medicine/Enfance/Hannu_Mäkelä/Hannu_Mäkelä.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hannu_M%C3%A4kel%C3%A4</t>
+          <t>Hannu_Mäkelä</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannu Eljas Mäkelä (né le 18 août 1943 à Helsinki) est un écrivain et chercheur en littérature finlandais[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannu Eljas Mäkelä (né le 18 août 1943 à Helsinki) est un écrivain et chercheur en littérature finlandais. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hannu_M%C3%A4kel%C3%A4</t>
+          <t>Hannu_Mäkelä</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hannu Mäkelä est un écrivain très productif, auteur d'ouvrages scientifiques, de nouvelles, de poèmes et romans. Ce sont cependant ses ouvrages pour enfants autour du personnage imaginaire de Huu qui lui valent la reconnaissance internationale et un grand succès public [2]. Ce dernier a fait paraître, depuis 1973, une série d'histoires de son personnage fétiche. La popularité de cette figure de l'imaginaire enfantin a été encore amplifiée par les disques de M.A. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hannu Mäkelä est un écrivain très productif, auteur d'ouvrages scientifiques, de nouvelles, de poèmes et romans. Ce sont cependant ses ouvrages pour enfants autour du personnage imaginaire de Huu qui lui valent la reconnaissance internationale et un grand succès public . Ce dernier a fait paraître, depuis 1973, une série d'histoires de son personnage fétiche. La popularité de cette figure de l'imaginaire enfantin a été encore amplifiée par les disques de M.A. 
 Mäkelä a reçu à plusieurs reprises le Prix de la littérature de l’État finlandais (1974, 1976, 1981, 1982 et 1988). 
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hannu_M%C3%A4kel%C3%A4</t>
+          <t>Hannu_Mäkelä</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traduites en français
-Hannu Mäkelä (trad. du finnois par Alexandre André, ill. Marika Maijala), La rive aux rêves [« Vauvaunia »], Poitiers, Le Lézard Noir, coll. « Le Petit Lézard », 2013, 33 p. (ISBN 978-2-35348-037-1)
-Romans
+          <t>Traduites en français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hannu Mäkelä (trad. du finnois par Alexandre André, ill. Marika Maijala), La rive aux rêves [« Vauvaunia »], Poitiers, Le Lézard Noir, coll. « Le Petit Lézard », 2013, 33 p. (ISBN 978-2-35348-037-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (fi) Matkoilla kaiken aikaa, Helsinki, Otava, 1965
 (fi) Kylliksi! tai Liikaa, Helsinki, Otava, 1965
 (fi) Kotimies, Helsinki, Otava, 1967
@@ -571,12 +625,116 @@
 (fi) Mikä sanomatta jää. Kertomus rakkaudesta, Helsinki, Éditions Tammi, 2009 (ISBN 978-951-31-4951-2)
 (fi) Kivi, Helsinki, Éditions Tammi, 2010 (ISBN 978-951-31-5592-6)
 (fi) Pushkinin enkeli, Helsinki, Éditions Tammi, 2013 (ISBN 978-951-31-7400-2)
-Nouvelles
-(fi) Hänen uuden elämänsä alku, Helsinki, H. Mäkelä, 1985 (ISBN 951-99652-8-9)
-autres proses
-(fi) Äiti. Muistelma, Helsinki, Otava, 1999 (5. painos 2006) (ISBN 978-951-1-16110-3 et 951-1-16110-5)
-(fi) Isä. Muistelma, Helsinki, Otava, 2004 (4. painos 2006) (ISBN 978-951-1-19207-7 et 951-1-19207-8)
-Recueils de poèmes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(fi) Hänen uuden elämänsä alku, Helsinki, H. Mäkelä, 1985 (ISBN 951-99652-8-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>autres proses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(fi) Äiti. Muistelma, Helsinki, Otava, 1999 (5. painos 2006) (ISBN 978-951-1-16110-3 et 951-1-16110-5)
+(fi) Isä. Muistelma, Helsinki, Otava, 2004 (4. painos 2006) (ISBN 978-951-1-19207-7 et 951-1-19207-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de poèmes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (fi) Sinisen taivaan, harmaan jään, Helsinki, Otava, 1966
 (fi) Sano minulle nimesi, Helsinki, Otava, 1969
 (fi) Vuoret ovat pilviä, Helsinki, Otava, 1972
@@ -599,7 +757,43 @@
 (fi) Maan sydämellä, Helsinki, Omakustanne, 2010
 (fi) Toden näköistä, Helsingissä, Tammi, 2011 (ISBN 978-951-31-5805-7)
 (fi) Musta on meri, Helsinki, Paasilinna, 2013 (ISBN 978-952-299-004-4)
-Ouvrages scientifiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages scientifiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (fi) Kaarina Kaila. Taiteilija, Helsinki, Otava, 1992 (ISBN 951-1-10994-4)
 (fi) Eino Leino. Elämä ja runo, Helsinki, Otava, 1997 (ISBN 951-1-14102-3)
 (fi) Nalle ja Moppe. Eino Leinon ja L. Onervan elämä, Helsinki, Otava, 2003 (ISBN 951-1-18199-8)
@@ -611,7 +805,43 @@
 (fi) Muistan. Lapsuus, Helsinki, Otava, 2011 (ISBN 978-951-31-6131-6 et 951-31-6131-5)
 (fi) Venäjää aikuisille, Helsinki, Tammi, 2012 (ISBN 978-951-31-6457-7)
 (fi) Muistan. Otavan aika, Helsingissä, Otava, 2015 (ISBN 978-951-31-8441-4)
-Livres pour enfants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (fi) Herra Huu, Helsinki, Otava, 1973 (ISBN 951-1-00391-7)
 (fi) Herra Huu saa naapurin, Helsinki, Otava, 1974 (ISBN 951-1-01441-2)
 (fi) Herra Huu muuttaa, Helsinki, Otava, 1975 (ISBN 951-1-01955-4)
@@ -649,7 +879,43 @@
 (fi) Herra Huu pitää ravintolaa, Helsinki, Tammi, 2011 (ISBN 978-951-31-5938-2)
 (fi) Ääni joka etsi Laulua, Helsinki, Paasilinna, 2013 (ISBN 978-952-5856-88-0)
 (fi) Olipa kerran : ja monta kertaa, Helsinki, Paasilinna, 2014 (ISBN 978-952-299-039-6)
-Pièces radiophoniques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pièces radiophoniques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Toivanen, 1967
 Sirkan päivä, 1969
 Yli äänen nopeuden, 1970
@@ -683,35 +949,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hannu_M%C3%A4kel%C3%A4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hannu_Mäkelä</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hannu_M%C3%A4kel%C3%A4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix de la littérature de l'État finlandais 1974, 1976, 1981, 1982 et 1988
 Médaille Anni Swan  1976
-(international) « Honor List » 1976[3], de l' IBBY, pour Herra Huu
+(international) « Honor List » 1976, de l' IBBY, pour Herra Huu
 Prix Arvid Lydecken 1978
 Prix Eino Leino 1982
 Prix de la pièce radiophonique nordique 1985
